--- a/Code/Results/Cases/Case_2_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049798866105164</v>
+        <v>0.3934994375533165</v>
       </c>
       <c r="C2">
-        <v>0.1556778597015267</v>
+        <v>0.05307076781402031</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9665319512984212</v>
+        <v>0.6441152678879121</v>
       </c>
       <c r="F2">
-        <v>1.901876410091759</v>
+        <v>2.35707244740486</v>
       </c>
       <c r="G2">
-        <v>0.0008106198099186633</v>
+        <v>0.002446762567082351</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02279747620963946</v>
+        <v>0.0532035366023873</v>
       </c>
       <c r="K2">
-        <v>1.109752930204053</v>
+        <v>0.3699106016603082</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.189180323187799</v>
+        <v>2.727889815261506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9123154733081265</v>
+        <v>0.351916771976164</v>
       </c>
       <c r="C3">
-        <v>0.1394478327974298</v>
+        <v>0.04771218570084557</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8433317154407973</v>
+        <v>0.6139038305324931</v>
       </c>
       <c r="F3">
-        <v>1.729204528670323</v>
+        <v>2.331975730226617</v>
       </c>
       <c r="G3">
-        <v>0.0008145400570614628</v>
+        <v>0.002449180088866428</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02347889470332198</v>
+        <v>0.05391904622141475</v>
       </c>
       <c r="K3">
-        <v>0.966961600130503</v>
+        <v>0.3256463336316529</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.221348159178206</v>
+        <v>2.763607967927598</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8280903707402558</v>
+        <v>0.3263971591446762</v>
       </c>
       <c r="C4">
-        <v>0.1294844153623842</v>
+        <v>0.04440530873365844</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7685663090756094</v>
+        <v>0.5956365294616575</v>
       </c>
       <c r="F4">
-        <v>1.626695094892881</v>
+        <v>2.318030432657693</v>
       </c>
       <c r="G4">
-        <v>0.0008170175938155173</v>
+        <v>0.002450741523717852</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0239770938162156</v>
+        <v>0.0543949113762352</v>
       </c>
       <c r="K4">
-        <v>0.8794000417043719</v>
+        <v>0.2984228377471254</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.245115584827772</v>
+        <v>2.787404497879209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7938015432377199</v>
+        <v>0.3160013584277408</v>
       </c>
       <c r="C5">
-        <v>0.1254233527208868</v>
+        <v>0.04305361655693218</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7382928967742401</v>
+        <v>0.588263496618282</v>
       </c>
       <c r="F5">
-        <v>1.585735265341313</v>
+        <v>2.312715200856942</v>
       </c>
       <c r="G5">
-        <v>0.0008180453701371422</v>
+        <v>0.002451397258632465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02419921083279419</v>
+        <v>0.05459800313517071</v>
       </c>
       <c r="K5">
-        <v>0.8437323605032532</v>
+        <v>0.2873182993557748</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.255764034675678</v>
+        <v>2.797570180278356</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.788109538846129</v>
+        <v>0.314275380375733</v>
       </c>
       <c r="C6">
-        <v>0.1247489248064966</v>
+        <v>0.04282892314121511</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7332769822126437</v>
+        <v>0.5870434999833947</v>
       </c>
       <c r="F6">
-        <v>1.578981106803781</v>
+        <v>2.311854795039494</v>
       </c>
       <c r="G6">
-        <v>0.000818217140729212</v>
+        <v>0.002451507318692592</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02423721927389977</v>
+        <v>0.05463227993802455</v>
       </c>
       <c r="K6">
-        <v>0.8378102447606182</v>
+        <v>0.2854737677618289</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.257589043615909</v>
+        <v>2.799286454687305</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8276278218121433</v>
+        <v>0.3262569422313106</v>
       </c>
       <c r="C7">
-        <v>0.1294296517780253</v>
+        <v>0.04438709588403356</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.768157279978297</v>
+        <v>0.5955368065616824</v>
       </c>
       <c r="F7">
-        <v>1.626139490758661</v>
+        <v>2.317957262013309</v>
       </c>
       <c r="G7">
-        <v>0.0008170313807084146</v>
+        <v>0.002450750288191043</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02398001328354127</v>
+        <v>0.05439761322216796</v>
       </c>
       <c r="K7">
-        <v>0.8789189745778003</v>
+        <v>0.2982731207742688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.245255354369149</v>
+        <v>2.787539700186031</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.002346196586672</v>
+        <v>0.3791594966565413</v>
       </c>
       <c r="C8">
-        <v>0.1500804974207597</v>
+        <v>0.0512266397377914</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9238528777175219</v>
+        <v>0.6336396706324763</v>
       </c>
       <c r="F8">
-        <v>1.841567034480448</v>
+        <v>2.348114835329127</v>
       </c>
       <c r="G8">
-        <v>0.0008119571505517603</v>
+        <v>0.002447580168845836</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0230152635730061</v>
+        <v>0.05344265141940951</v>
       </c>
       <c r="K8">
-        <v>1.060486272568397</v>
+        <v>0.3546579708228705</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.199409200594971</v>
+        <v>2.739817856981162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.347184939934976</v>
+        <v>0.4829799351592214</v>
       </c>
       <c r="C9">
-        <v>0.1906606104839881</v>
+        <v>0.06450357847303678</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.237493585285222</v>
+        <v>0.71060800579491</v>
       </c>
       <c r="F9">
-        <v>2.295271003359858</v>
+        <v>2.418904662693976</v>
       </c>
       <c r="G9">
-        <v>0.0008025448973413299</v>
+        <v>0.002441972376475143</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02180337428950452</v>
+        <v>0.05186057849647341</v>
       </c>
       <c r="K9">
-        <v>1.418133152748226</v>
+        <v>0.4648507062620126</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.143619603651715</v>
+        <v>2.66106708303181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.602971821156615</v>
+        <v>0.559287041180113</v>
       </c>
       <c r="C10">
-        <v>0.2206334160060948</v>
+        <v>0.0741725456347524</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.475047315153645</v>
+        <v>0.7685426300641751</v>
       </c>
       <c r="F10">
-        <v>2.652785518802375</v>
+        <v>2.478072130460845</v>
       </c>
       <c r="G10">
-        <v>0.0007959264668004578</v>
+        <v>0.00243821969425942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02139748690907339</v>
+        <v>0.05087632085884053</v>
       </c>
       <c r="K10">
-        <v>1.682941249531467</v>
+        <v>0.5455598615515953</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.126771303913543</v>
+        <v>2.612291948717257</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.720128525460638</v>
+        <v>0.5940044568458802</v>
       </c>
       <c r="C11">
-        <v>0.2343299372548842</v>
+        <v>0.07855204227205093</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.585170688935719</v>
+        <v>0.7952032494922179</v>
       </c>
       <c r="F11">
-        <v>2.82193768413984</v>
+        <v>2.506555886483</v>
       </c>
       <c r="G11">
-        <v>0.0007929724730158516</v>
+        <v>0.002436591465812832</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02133508940340079</v>
+        <v>0.0504674292287195</v>
       </c>
       <c r="K11">
-        <v>1.804116128960374</v>
+        <v>0.5822188870467642</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.125156814338254</v>
+        <v>2.592084108353603</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.764631059636116</v>
+        <v>0.6071513085961158</v>
       </c>
       <c r="C12">
-        <v>0.2395277360966759</v>
+        <v>0.08020764812521008</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.627214378463435</v>
+        <v>0.8053430775790389</v>
       </c>
       <c r="F12">
-        <v>2.887044123679487</v>
+        <v>2.517568287345853</v>
       </c>
       <c r="G12">
-        <v>0.0007918613625238854</v>
+        <v>0.002435986180899631</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02133060911029538</v>
+        <v>0.05031819685039629</v>
       </c>
       <c r="K12">
-        <v>1.850127848473448</v>
+        <v>0.5960921893260434</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.125489328797443</v>
+        <v>2.584717443321807</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.75504012338348</v>
+        <v>0.6043199028459867</v>
       </c>
       <c r="C13">
-        <v>0.2384077581520785</v>
+        <v>0.07985121033846099</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.618143503949469</v>
+        <v>0.8031573251430331</v>
       </c>
       <c r="F13">
-        <v>2.872973540951563</v>
+        <v>2.515186497055453</v>
       </c>
       <c r="G13">
-        <v>0.0007921003374742478</v>
+        <v>0.002436116038555208</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02133069588519199</v>
+        <v>0.05035008707914201</v>
       </c>
       <c r="K13">
-        <v>1.840212435220849</v>
+        <v>0.5931047211965961</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.12537449231364</v>
+        <v>2.586291270456883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.723786873975598</v>
+        <v>0.595086057207908</v>
       </c>
       <c r="C14">
-        <v>0.2347573241104328</v>
+        <v>0.07868830686463468</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.588622505426187</v>
+        <v>0.7960365765422921</v>
       </c>
       <c r="F14">
-        <v>2.827272244618655</v>
+        <v>2.507457345395778</v>
       </c>
       <c r="G14">
-        <v>0.0007928809148711419</v>
+        <v>0.002436541442681481</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02133432755201525</v>
+        <v>0.05045503932826989</v>
       </c>
       <c r="K14">
-        <v>1.807898888196007</v>
+        <v>0.5833604294042232</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.12516480798439</v>
+        <v>2.591472319535413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.704662025459243</v>
+        <v>0.5894300583365748</v>
       </c>
       <c r="C15">
-        <v>0.2325228629729565</v>
+        <v>0.07797562580515205</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.570586079654802</v>
+        <v>0.7916806478840925</v>
       </c>
       <c r="F15">
-        <v>2.799419507734314</v>
+        <v>2.502752498854136</v>
       </c>
       <c r="G15">
-        <v>0.0007933599977364795</v>
+        <v>0.00243680348360206</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02133909471476336</v>
+        <v>0.05052005624829725</v>
       </c>
       <c r="K15">
-        <v>1.788122958374942</v>
+        <v>0.5773906210746986</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.125161592069261</v>
+        <v>2.594683081314429</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.595333340764597</v>
+        <v>0.557018225177984</v>
       </c>
       <c r="C16">
-        <v>0.2197397538865999</v>
+        <v>0.07388594612054078</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.467895777328764</v>
+        <v>0.7668064546410847</v>
       </c>
       <c r="F16">
-        <v>2.641871755778226</v>
+        <v>2.476242267065089</v>
       </c>
       <c r="G16">
-        <v>0.000796120604379158</v>
+        <v>0.002438327685676725</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0214041556276463</v>
+        <v>0.05090382632516643</v>
       </c>
       <c r="K16">
-        <v>1.675038439703059</v>
+        <v>0.5431629280486447</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.127004733575305</v>
+        <v>2.61365249847448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.52848392404843</v>
+        <v>0.537135457671809</v>
       </c>
       <c r="C17">
-        <v>0.2119151425946342</v>
+        <v>0.07137214028475114</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.405457460118669</v>
+        <v>0.7516253150162555</v>
       </c>
       <c r="F17">
-        <v>2.546968989642153</v>
+        <v>2.460381256083394</v>
       </c>
       <c r="G17">
-        <v>0.0007978282325405465</v>
+        <v>0.002439282900346214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02147645172624735</v>
+        <v>0.05114922137603095</v>
       </c>
       <c r="K17">
-        <v>1.605862928272387</v>
+        <v>0.5221505636697827</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.129735654187357</v>
+        <v>2.62579740832247</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.490107520686507</v>
+        <v>0.5256999146991745</v>
       </c>
       <c r="C18">
-        <v>0.2074202912327365</v>
+        <v>0.06992448574285959</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.369735362780148</v>
+        <v>0.7429223117948851</v>
       </c>
       <c r="F18">
-        <v>2.492989343255857</v>
+        <v>2.451405983106397</v>
       </c>
       <c r="G18">
-        <v>0.0007988158002997891</v>
+        <v>0.002439839742839227</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02152943874776447</v>
+        <v>0.05129402191513321</v>
       </c>
       <c r="K18">
-        <v>1.56614056121299</v>
+        <v>0.5100595759998043</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.131871077705867</v>
+        <v>2.632969175136211</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.477125901474636</v>
+        <v>0.5218281400639455</v>
       </c>
       <c r="C19">
-        <v>0.2058993157545217</v>
+        <v>0.06943403176295249</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.357671903561354</v>
+        <v>0.7399805672336583</v>
       </c>
       <c r="F19">
-        <v>2.474813497092143</v>
+        <v>2.448392431850195</v>
       </c>
       <c r="G19">
-        <v>0.0007991511179936128</v>
+        <v>0.002440029557582818</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02154929232281333</v>
+        <v>0.05134367619492508</v>
       </c>
       <c r="K19">
-        <v>1.55270184192679</v>
+        <v>0.5059648959805827</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.13268892448842</v>
+        <v>2.635429389551462</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.535592378951804</v>
+        <v>0.5392519648487166</v>
       </c>
       <c r="C20">
-        <v>0.2127474839595749</v>
+        <v>0.07163992405710928</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.412084060861318</v>
+        <v>0.7532383935985081</v>
       </c>
       <c r="F20">
-        <v>2.557008042127137</v>
+        <v>2.462054410572136</v>
       </c>
       <c r="G20">
-        <v>0.0007976458998626557</v>
+        <v>0.002439180447715045</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02146756445755926</v>
+        <v>0.05112272015454344</v>
       </c>
       <c r="K20">
-        <v>1.613219834488319</v>
+        <v>0.5243879117144274</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.129385985812831</v>
+        <v>2.624485270683294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.732962776223246</v>
+        <v>0.5977982629240159</v>
       </c>
       <c r="C21">
-        <v>0.2358292206482702</v>
+        <v>0.07902995688002079</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.597283854676775</v>
+        <v>0.7981269176615058</v>
       </c>
       <c r="F21">
-        <v>2.840666295699009</v>
+        <v>2.509721439277911</v>
       </c>
       <c r="G21">
-        <v>0.0007926514422449451</v>
+        <v>0.002436416185264485</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02133272795227192</v>
+        <v>0.05042406001088828</v>
       </c>
       <c r="K21">
-        <v>1.817386562942943</v>
+        <v>0.586222804512289</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.125200160454213</v>
+        <v>2.589942761770686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.862771324772552</v>
+        <v>0.6360620816365099</v>
       </c>
       <c r="C22">
-        <v>0.2509811458125029</v>
+        <v>0.08384332570690844</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.720343106984757</v>
+        <v>0.8277208285300901</v>
       </c>
       <c r="F22">
-        <v>3.032247836489233</v>
+        <v>2.542193522584625</v>
       </c>
       <c r="G22">
-        <v>0.0007894306628688563</v>
+        <v>0.002434675362012983</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0213570482544263</v>
+        <v>0.05000013025101424</v>
       </c>
       <c r="K22">
-        <v>1.951564555488716</v>
+        <v>0.6265846295330562</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.128005086080663</v>
+        <v>2.56903235995334</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.793407273512599</v>
+        <v>0.6156401158140454</v>
       </c>
       <c r="C23">
-        <v>0.2428873417553774</v>
+        <v>0.08127587350520571</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.654462651720323</v>
+        <v>0.8119025000781619</v>
       </c>
       <c r="F23">
-        <v>2.92938942680027</v>
+        <v>2.524741640042805</v>
       </c>
       <c r="G23">
-        <v>0.0007911459156078049</v>
+        <v>0.002435598470629796</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02133322317540909</v>
+        <v>0.050223392521346</v>
       </c>
       <c r="K23">
-        <v>1.879875091048262</v>
+        <v>0.6050476224430668</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.125974996017632</v>
+        <v>2.580039993668649</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.532378473108139</v>
+        <v>0.5382951064727592</v>
       </c>
       <c r="C24">
-        <v>0.2123711713214647</v>
+        <v>0.07151886658874673</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.409087634505639</v>
+        <v>0.7525090434157846</v>
       </c>
       <c r="F24">
-        <v>2.552467584697013</v>
+        <v>2.461297530686068</v>
       </c>
       <c r="G24">
-        <v>0.0007977283142466809</v>
+        <v>0.00243922674266103</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02147154692849718</v>
+        <v>0.05113468977202729</v>
       </c>
       <c r="K24">
-        <v>1.609893630774906</v>
+        <v>0.523376439945423</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.129542315363977</v>
+        <v>2.625077897890051</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.25355295951141</v>
+        <v>0.4548871821866385</v>
       </c>
       <c r="C25">
-        <v>0.1796631180555863</v>
+        <v>0.06092662898531387</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.151553979010146</v>
+        <v>0.6895437410525318</v>
       </c>
       <c r="F25">
-        <v>2.168683012780406</v>
+        <v>2.398501114096916</v>
       </c>
       <c r="G25">
-        <v>0.0008050366467969384</v>
+        <v>0.002443424648553187</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02205153982501429</v>
+        <v>0.05225736398586811</v>
       </c>
       <c r="K25">
-        <v>1.321103951615385</v>
+        <v>0.4350830942998414</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.154729866382368</v>
+        <v>2.680779163078569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3934994375533165</v>
+        <v>1.049798866105419</v>
       </c>
       <c r="C2">
-        <v>0.05307076781402031</v>
+        <v>0.155677859701683</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6441152678879121</v>
+        <v>0.9665319512983785</v>
       </c>
       <c r="F2">
-        <v>2.35707244740486</v>
+        <v>1.901876410091788</v>
       </c>
       <c r="G2">
-        <v>0.002446762567082351</v>
+        <v>0.0008106198099604433</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0532035366023873</v>
+        <v>0.02279747620969985</v>
       </c>
       <c r="K2">
-        <v>0.3699106016603082</v>
+        <v>1.109752930204053</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.727889815261506</v>
+        <v>1.18918032318787</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.351916771976164</v>
+        <v>0.9123154733081265</v>
       </c>
       <c r="C3">
-        <v>0.04771218570084557</v>
+        <v>0.1394478327974724</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6139038305324931</v>
+        <v>0.8433317154407973</v>
       </c>
       <c r="F3">
-        <v>2.331975730226617</v>
+        <v>1.729204528670337</v>
       </c>
       <c r="G3">
-        <v>0.002449180088866428</v>
+        <v>0.0008145400570771402</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05391904622141475</v>
+        <v>0.0234788947033131</v>
       </c>
       <c r="K3">
-        <v>0.3256463336316529</v>
+        <v>0.9669616001305315</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.763607967927598</v>
+        <v>1.221348159178191</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3263971591446762</v>
+        <v>0.8280903707403695</v>
       </c>
       <c r="C4">
-        <v>0.04440530873365844</v>
+        <v>0.12948441536264</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5956365294616575</v>
+        <v>0.7685663090755668</v>
       </c>
       <c r="F4">
-        <v>2.318030432657693</v>
+        <v>1.626695094892867</v>
       </c>
       <c r="G4">
-        <v>0.002450741523717852</v>
+        <v>0.0008170175938017998</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0543949113762352</v>
+        <v>0.02397709381631152</v>
       </c>
       <c r="K4">
-        <v>0.2984228377471254</v>
+        <v>0.8794000417043151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.787404497879209</v>
+        <v>1.245115584827758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3160013584277408</v>
+        <v>0.7938015432375778</v>
       </c>
       <c r="C5">
-        <v>0.04305361655693218</v>
+        <v>0.1254233527211994</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.588263496618282</v>
+        <v>0.7382928967742686</v>
       </c>
       <c r="F5">
-        <v>2.312715200856942</v>
+        <v>1.585735265341313</v>
       </c>
       <c r="G5">
-        <v>0.002451397258632465</v>
+        <v>0.0008180453701394785</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05459800313517071</v>
+        <v>0.0241992108327036</v>
       </c>
       <c r="K5">
-        <v>0.2873182993557748</v>
+        <v>0.8437323605034237</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.797570180278356</v>
+        <v>1.25576403467565</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.314275380375733</v>
+        <v>0.7881095388462143</v>
       </c>
       <c r="C6">
-        <v>0.04282892314121511</v>
+        <v>0.124748924806255</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5870434999833947</v>
+        <v>0.7332769822126295</v>
       </c>
       <c r="F6">
-        <v>2.311854795039494</v>
+        <v>1.578981106803781</v>
       </c>
       <c r="G6">
-        <v>0.002451507318692592</v>
+        <v>0.0008182171407279344</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05463227993802455</v>
+        <v>0.02423721927388733</v>
       </c>
       <c r="K6">
-        <v>0.2854737677618289</v>
+        <v>0.8378102447605045</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.799286454687305</v>
+        <v>1.257589043615923</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3262569422313106</v>
+        <v>0.8276278218122002</v>
       </c>
       <c r="C7">
-        <v>0.04438709588403356</v>
+        <v>0.1294296517780111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5955368065616824</v>
+        <v>0.7681572799782685</v>
       </c>
       <c r="F7">
-        <v>2.317957262013309</v>
+        <v>1.626139490758675</v>
       </c>
       <c r="G7">
-        <v>0.002450750288191043</v>
+        <v>0.0008170313807393935</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05439761322216796</v>
+        <v>0.02398001328358212</v>
       </c>
       <c r="K7">
-        <v>0.2982731207742688</v>
+        <v>0.8789189745777435</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.787539700186031</v>
+        <v>1.245255354369135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3791594966565413</v>
+        <v>1.002346196586444</v>
       </c>
       <c r="C8">
-        <v>0.0512266397377914</v>
+        <v>0.1500804974202907</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6336396706324763</v>
+        <v>0.9238528777174793</v>
       </c>
       <c r="F8">
-        <v>2.348114835329127</v>
+        <v>1.841567034480448</v>
       </c>
       <c r="G8">
-        <v>0.002447580168845836</v>
+        <v>0.0008119571505351927</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05344265141940951</v>
+        <v>0.02301526357300787</v>
       </c>
       <c r="K8">
-        <v>0.3546579708228705</v>
+        <v>1.060486272568369</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.739817856981162</v>
+        <v>1.199409200594957</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4829799351592214</v>
+        <v>1.347184939934976</v>
       </c>
       <c r="C9">
-        <v>0.06450357847303678</v>
+        <v>0.190660610483917</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.71060800579491</v>
+        <v>1.237493585285208</v>
       </c>
       <c r="F9">
-        <v>2.418904662693976</v>
+        <v>2.295271003359858</v>
       </c>
       <c r="G9">
-        <v>0.002441972376475143</v>
+        <v>0.0008025448974229341</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05186057849647341</v>
+        <v>0.02180337428949564</v>
       </c>
       <c r="K9">
-        <v>0.4648507062620126</v>
+        <v>1.418133152748197</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.66106708303181</v>
+        <v>1.143619603651715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.559287041180113</v>
+        <v>1.60297182115653</v>
       </c>
       <c r="C10">
-        <v>0.0741725456347524</v>
+        <v>0.2206334160061516</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7685426300641751</v>
+        <v>1.475047315153674</v>
       </c>
       <c r="F10">
-        <v>2.478072130460845</v>
+        <v>2.652785518802347</v>
       </c>
       <c r="G10">
-        <v>0.00243821969425942</v>
+        <v>0.0007959264668577636</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05087632085884053</v>
+        <v>0.02139748690906806</v>
       </c>
       <c r="K10">
-        <v>0.5455598615515953</v>
+        <v>1.682941249531467</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.612291948717257</v>
+        <v>1.126771303913571</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5940044568458802</v>
+        <v>1.720128525460524</v>
       </c>
       <c r="C11">
-        <v>0.07855204227205093</v>
+        <v>0.2343299372549552</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7952032494922179</v>
+        <v>1.585170688935705</v>
       </c>
       <c r="F11">
-        <v>2.506555886483</v>
+        <v>2.82193768413984</v>
       </c>
       <c r="G11">
-        <v>0.002436591465812832</v>
+        <v>0.0007929724729586698</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0504674292287195</v>
+        <v>0.02133508940341677</v>
       </c>
       <c r="K11">
-        <v>0.5822188870467642</v>
+        <v>1.80411612896026</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.592084108353603</v>
+        <v>1.125156814338254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6071513085961158</v>
+        <v>1.764631059636059</v>
       </c>
       <c r="C12">
-        <v>0.08020764812521008</v>
+        <v>0.2395277360961927</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8053430775790389</v>
+        <v>1.627214378463421</v>
       </c>
       <c r="F12">
-        <v>2.517568287345853</v>
+        <v>2.887044123679487</v>
       </c>
       <c r="G12">
-        <v>0.002435986180899631</v>
+        <v>0.0007918613625810064</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05031819685039629</v>
+        <v>0.02133060911035223</v>
       </c>
       <c r="K12">
-        <v>0.5960921893260434</v>
+        <v>1.850127848473562</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.584717443321807</v>
+        <v>1.125489328797585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6043199028459867</v>
+        <v>1.755040123383367</v>
       </c>
       <c r="C13">
-        <v>0.07985121033846099</v>
+        <v>0.2384077581518653</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8031573251430331</v>
+        <v>1.618143503949511</v>
       </c>
       <c r="F13">
-        <v>2.515186497055453</v>
+        <v>2.872973540951563</v>
       </c>
       <c r="G13">
-        <v>0.002436116038555208</v>
+        <v>0.0007921003374564494</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05035008707914201</v>
+        <v>0.02133069588513692</v>
       </c>
       <c r="K13">
-        <v>0.5931047211965961</v>
+        <v>1.840212435220934</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.586291270456883</v>
+        <v>1.125374492313597</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.595086057207908</v>
+        <v>1.723786873975598</v>
       </c>
       <c r="C14">
-        <v>0.07868830686463468</v>
+        <v>0.2347573241106602</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7960365765422921</v>
+        <v>1.588622505426201</v>
       </c>
       <c r="F14">
-        <v>2.507457345395778</v>
+        <v>2.827272244618655</v>
       </c>
       <c r="G14">
-        <v>0.002436541442681481</v>
+        <v>0.0007928809149086656</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05045503932826989</v>
+        <v>0.02133432755187492</v>
       </c>
       <c r="K14">
-        <v>0.5833604294042232</v>
+        <v>1.807898888196036</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.591472319535413</v>
+        <v>1.125164807984362</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5894300583365748</v>
+        <v>1.704662025459186</v>
       </c>
       <c r="C15">
-        <v>0.07797562580515205</v>
+        <v>0.2325228629731981</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7916806478840925</v>
+        <v>1.570586079654817</v>
       </c>
       <c r="F15">
-        <v>2.502752498854136</v>
+        <v>2.799419507734285</v>
       </c>
       <c r="G15">
-        <v>0.00243680348360206</v>
+        <v>0.0007933599976587492</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05052005624829725</v>
+        <v>0.02133909471482021</v>
       </c>
       <c r="K15">
-        <v>0.5773906210746986</v>
+        <v>1.788122958375055</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.594683081314429</v>
+        <v>1.125161592069247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.557018225177984</v>
+        <v>1.59533334076454</v>
       </c>
       <c r="C16">
-        <v>0.07388594612054078</v>
+        <v>0.2197397538864436</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7668064546410847</v>
+        <v>1.467895777328764</v>
       </c>
       <c r="F16">
-        <v>2.476242267065089</v>
+        <v>2.641871755778169</v>
       </c>
       <c r="G16">
-        <v>0.002438327685676725</v>
+        <v>0.0007961206043766949</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05090382632516643</v>
+        <v>0.02140415562758413</v>
       </c>
       <c r="K16">
-        <v>0.5431629280486447</v>
+        <v>1.675038439703116</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.61365249847448</v>
+        <v>1.127004733575319</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.537135457671809</v>
+        <v>1.528483924048487</v>
       </c>
       <c r="C17">
-        <v>0.07137214028475114</v>
+        <v>0.2119151425948615</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7516253150162555</v>
+        <v>1.405457460118697</v>
       </c>
       <c r="F17">
-        <v>2.460381256083394</v>
+        <v>2.546968989642153</v>
       </c>
       <c r="G17">
-        <v>0.002439282900346214</v>
+        <v>0.0007978282325401024</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05114922137603095</v>
+        <v>0.0214764517261834</v>
       </c>
       <c r="K17">
-        <v>0.5221505636697827</v>
+        <v>1.605862928272359</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.62579740832247</v>
+        <v>1.129735654187343</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5256999146991745</v>
+        <v>1.490107520686507</v>
       </c>
       <c r="C18">
-        <v>0.06992448574285959</v>
+        <v>0.2074202912327365</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7429223117948851</v>
+        <v>1.369735362780133</v>
       </c>
       <c r="F18">
-        <v>2.451405983106397</v>
+        <v>2.492989343255857</v>
       </c>
       <c r="G18">
-        <v>0.002439839742839227</v>
+        <v>0.0007988158003581884</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05129402191513321</v>
+        <v>0.02152943874777336</v>
       </c>
       <c r="K18">
-        <v>0.5100595759998043</v>
+        <v>1.566140561212961</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.632969175136211</v>
+        <v>1.131871077705867</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5218281400639455</v>
+        <v>1.477125901474579</v>
       </c>
       <c r="C19">
-        <v>0.06943403176295249</v>
+        <v>0.2058993157542801</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7399805672336583</v>
+        <v>1.357671903561325</v>
       </c>
       <c r="F19">
-        <v>2.448392431850195</v>
+        <v>2.474813497092143</v>
       </c>
       <c r="G19">
-        <v>0.002440029557582818</v>
+        <v>0.0007991511179946532</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05134367619492508</v>
+        <v>0.02154929232281333</v>
       </c>
       <c r="K19">
-        <v>0.5059648959805827</v>
+        <v>1.55270184192662</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.635429389551462</v>
+        <v>1.132688924488335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5392519648487166</v>
+        <v>1.535592378951804</v>
       </c>
       <c r="C20">
-        <v>0.07163992405710928</v>
+        <v>0.2127474839596175</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7532383935985081</v>
+        <v>1.412084060861332</v>
       </c>
       <c r="F20">
-        <v>2.462054410572136</v>
+        <v>2.557008042127137</v>
       </c>
       <c r="G20">
-        <v>0.002439180447715045</v>
+        <v>0.0007976458998992773</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05112272015454344</v>
+        <v>0.02146756445746689</v>
       </c>
       <c r="K20">
-        <v>0.5243879117144274</v>
+        <v>1.613219834488518</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.624485270683294</v>
+        <v>1.129385985812903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5977982629240159</v>
+        <v>1.732962776223047</v>
       </c>
       <c r="C21">
-        <v>0.07902995688002079</v>
+        <v>0.235829220648057</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7981269176615058</v>
+        <v>1.597283854676803</v>
       </c>
       <c r="F21">
-        <v>2.509721439277911</v>
+        <v>2.840666295699009</v>
       </c>
       <c r="G21">
-        <v>0.002436416185264485</v>
+        <v>0.0007926514422451625</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05042406001088828</v>
+        <v>0.02133272795226837</v>
       </c>
       <c r="K21">
-        <v>0.586222804512289</v>
+        <v>1.817386562942914</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.589942761770686</v>
+        <v>1.12520016045417</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6360620816365099</v>
+        <v>1.862771324772552</v>
       </c>
       <c r="C22">
-        <v>0.08384332570690844</v>
+        <v>0.2509811458125171</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8277208285300901</v>
+        <v>1.720343106984757</v>
       </c>
       <c r="F22">
-        <v>2.542193522584625</v>
+        <v>3.032247836489233</v>
       </c>
       <c r="G22">
-        <v>0.002434675362012983</v>
+        <v>0.0007894306628876719</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05000013025101424</v>
+        <v>0.02135704825449736</v>
       </c>
       <c r="K22">
-        <v>0.6265846295330562</v>
+        <v>1.951564555488687</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.56903235995334</v>
+        <v>1.128005086080663</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6156401158140454</v>
+        <v>1.793407273512599</v>
       </c>
       <c r="C23">
-        <v>0.08127587350520571</v>
+        <v>0.2428873417555906</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8119025000781619</v>
+        <v>1.654462651720323</v>
       </c>
       <c r="F23">
-        <v>2.524741640042805</v>
+        <v>2.92938942680027</v>
       </c>
       <c r="G23">
-        <v>0.002435598470629796</v>
+        <v>0.0007911459155501048</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.050223392521346</v>
+        <v>0.02133322317547304</v>
       </c>
       <c r="K23">
-        <v>0.6050476224430668</v>
+        <v>1.879875091048348</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.580039993668649</v>
+        <v>1.125974996017703</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5382951064727592</v>
+        <v>1.532378473107968</v>
       </c>
       <c r="C24">
-        <v>0.07151886658874673</v>
+        <v>0.212371171321692</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7525090434157846</v>
+        <v>1.409087634505582</v>
       </c>
       <c r="F24">
-        <v>2.461297530686068</v>
+        <v>2.552467584697013</v>
       </c>
       <c r="G24">
-        <v>0.00243922674266103</v>
+        <v>0.00079772831422803</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05113468977202729</v>
+        <v>0.02147154692849718</v>
       </c>
       <c r="K24">
-        <v>0.523376439945423</v>
+        <v>1.609893630774934</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.625077897890051</v>
+        <v>1.129542315363992</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4548871821866385</v>
+        <v>1.25355295951158</v>
       </c>
       <c r="C25">
-        <v>0.06092662898531387</v>
+        <v>0.1796631180557711</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6895437410525318</v>
+        <v>1.151553979010188</v>
       </c>
       <c r="F25">
-        <v>2.398501114096916</v>
+        <v>2.168683012780392</v>
       </c>
       <c r="G25">
-        <v>0.002443424648553187</v>
+        <v>0.0008050366468721037</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05225736398586811</v>
+        <v>0.02205153982506936</v>
       </c>
       <c r="K25">
-        <v>0.4350830942998414</v>
+        <v>1.321103951615441</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.680779163078569</v>
+        <v>1.154729866382354</v>
       </c>
     </row>
   </sheetData>
